--- a/biology/Histoire de la zoologie et de la botanique/P.J.Bergius/P.J.Bergius.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/P.J.Bergius/P.J.Bergius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Peter Jonas Bergius est un botaniste suédois, né le 6 juillet 1730 à Stockholm et mort le 10 juillet 1790.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie auprès de Carl von Linné, qui lui dédie le genre Bergia de la famille des Elatinaceae en 1771.
 Berg est notamment l’auteur de Descriptiones plantarum ex Capita Bonae Spei (1767) où il décrit la flore du cap de Bonne-Espérance.
@@ -544,7 +558,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(la) Lars Salvius, Descriptiones plantarum ex Capite Bonae Spei, Stockholm, 1767 (lire en ligne)
 			Descriptiones plantarum ex Capite Bonae Spei, 1767
